--- a/★SDカード・フォルダ・WAVEファイルについて.xlsx
+++ b/★SDカード・フォルダ・WAVEファイルについて.xlsx
@@ -130,16 +130,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>・ロングファイル名が使えます</t>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>・日本語は使えません。アルファベットと数字のみです。</t>
     <rPh sb="1" eb="4">
       <t>ニホンゴ</t>
@@ -271,6 +261,16 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>・ロングファイル名は使えません。</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -2374,14 +2374,14 @@
   <dimension ref="A2:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2391,17 +2391,17 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2411,63 +2411,63 @@
     </row>
     <row r="19" spans="1:18">
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:2">
